--- a/Week9Project_TaskList.xlsx
+++ b/Week9Project_TaskList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnm\Google Drive\2018-Spring\CIS-269\Week09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnm\Google Drive\2018-Spring\CIS-269\Week09\Snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620D229-D8A9-4600-A55E-50B321EF91DD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0099-91AB-485A-95B2-B38FA8B2F8AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Update snake graphic</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>45 minutes</t>
+  </si>
+  <si>
+    <t>1 minute</t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +760,9 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -775,6 +781,9 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">

--- a/Week9Project_TaskList.xlsx
+++ b/Week9Project_TaskList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnm\Google Drive\2018-Spring\CIS-269\Week09\Snake\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\269 Software Maintenance\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA0099-91AB-485A-95B2-B38FA8B2F8AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Update snake graphic</t>
   </si>
@@ -78,9 +77,6 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>7-13</t>
-  </si>
-  <si>
     <t>Task No</t>
   </si>
   <si>
@@ -135,28 +131,13 @@
     <t>Configure controls to start game with arrow keys</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>.5 hours</t>
-  </si>
-  <si>
-    <t>2 minutes</t>
-  </si>
-  <si>
-    <t>20 minutes</t>
-  </si>
-  <si>
-    <t>45 minutes</t>
-  </si>
-  <si>
-    <t>1 minute</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,30 +240,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:U15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
-  <autoFilter ref="A1:U15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task No" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Duration [Hours]"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Predecessor"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="0.25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="0.5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="0.75"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1.25"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="1.5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="1.75"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2.25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2.5"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2.75"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="3.25"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="3.5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="3.75"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="4"/>
-    <tableColumn id="21" xr3:uid="{B954EA4A-E1E0-4616-92F2-FF625D086695}" name="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1">
+  <autoFilter ref="A1:T15"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Task No" dataDxfId="0"/>
+    <tableColumn id="2" name="Task"/>
+    <tableColumn id="3" name="Duration [Hours]"/>
+    <tableColumn id="4" name="Predecessor"/>
+    <tableColumn id="5" name="0.25"/>
+    <tableColumn id="6" name="0.5"/>
+    <tableColumn id="7" name="0.75"/>
+    <tableColumn id="8" name="1"/>
+    <tableColumn id="9" name="1.25"/>
+    <tableColumn id="10" name="1.5"/>
+    <tableColumn id="11" name="1.75"/>
+    <tableColumn id="12" name="2"/>
+    <tableColumn id="13" name="2.25"/>
+    <tableColumn id="14" name="2.5"/>
+    <tableColumn id="15" name="2.75"/>
+    <tableColumn id="16" name="3"/>
+    <tableColumn id="17" name="3.25"/>
+    <tableColumn id="18" name="3.5"/>
+    <tableColumn id="19" name="3.75"/>
+    <tableColumn id="20" name="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,9 +545,9 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -579,58 +559,55 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -644,7 +621,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -660,7 +637,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -676,7 +653,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -692,7 +669,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -708,7 +685,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -724,12 +701,12 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>0.5</v>
@@ -739,11 +716,8 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="U8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -760,11 +734,8 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="U9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -781,11 +752,8 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="U10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -802,11 +770,8 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="U11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -822,7 +787,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -836,11 +801,8 @@
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="U13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -855,11 +817,8 @@
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="U14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -870,7 +829,7 @@
         <v>0.5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
